--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43268,6 +43268,41 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43303,6 +43303,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43340,6 +43340,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>40100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43375,6 +43375,41 @@
         <v>40100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>14300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43410,6 +43410,41 @@
         <v>14300</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43445,6 +43445,41 @@
         <v>21000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>220800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43480,6 +43480,41 @@
         <v>220800</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>562000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43515,6 +43515,41 @@
         <v>562000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>34000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43550,6 +43550,41 @@
         <v>34000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43585,6 +43585,41 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>78600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43620,6 +43620,41 @@
         <v>78600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>4800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43655,6 +43655,41 @@
         <v>4800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43690,6 +43690,76 @@
         <v>21000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>161200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43760,6 +43760,76 @@
         <v>161200</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>160100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43830,6 +43830,43 @@
         <v>160100</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43867,6 +43867,41 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>436300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43902,6 +43902,41 @@
         <v>436300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>118800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43937,6 +43937,41 @@
         <v>118800</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43972,6 +43972,76 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>158000</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>37000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44042,6 +44042,43 @@
         <v>37000</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44079,6 +44079,41 @@
         </is>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2289"/>
+  <dimension ref="A1:I2290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80829,6 +80829,41 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="2290">
+      <c r="A2290" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D2290" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E2290" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G2290" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2290" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2290" t="n">
+        <v>176600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2290"/>
+  <dimension ref="A1:I2291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80864,6 +80864,41 @@
         <v>176600</v>
       </c>
     </row>
+    <row r="2291">
+      <c r="A2291" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D2291" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E2291" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2291" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2291" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2291" t="n">
+        <v>107100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2291"/>
+  <dimension ref="A1:I2292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80899,6 +80899,41 @@
         <v>107100</v>
       </c>
     </row>
+    <row r="2292">
+      <c r="A2292" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E2292" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2292" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2292" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2292" t="n">
+        <v>23300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2292"/>
+  <dimension ref="A1:I2293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80934,6 +80934,41 @@
         <v>23300</v>
       </c>
     </row>
+    <row r="2293">
+      <c r="A2293" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E2293" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2293" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2293" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2293" t="n">
+        <v>104600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2293"/>
+  <dimension ref="A1:I2294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80969,6 +80969,41 @@
         <v>104600</v>
       </c>
     </row>
+    <row r="2294">
+      <c r="A2294" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D2294" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E2294" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2294" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2294" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2294" t="n">
+        <v>103300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2294"/>
+  <dimension ref="A1:I2295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81004,6 +81004,41 @@
         <v>103300</v>
       </c>
     </row>
+    <row r="2295">
+      <c r="A2295" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D2295" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E2295" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2295" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2295" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2295" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2295"/>
+  <dimension ref="A1:I2296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81039,6 +81039,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2296">
+      <c r="A2296" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D2296" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E2296" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2296" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2296" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2296" t="n">
+        <v>273400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2296"/>
+  <dimension ref="A1:I2297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81074,6 +81074,41 @@
         <v>273400</v>
       </c>
     </row>
+    <row r="2297">
+      <c r="A2297" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D2297" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E2297" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2297" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2297" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2297" t="n">
+        <v>171300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2297"/>
+  <dimension ref="A1:I2298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81109,6 +81109,41 @@
         <v>171300</v>
       </c>
     </row>
+    <row r="2298">
+      <c r="A2298" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E2298" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2298" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2298" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2298" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2298"/>
+  <dimension ref="A1:I2299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81144,6 +81144,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2299">
+      <c r="A2299" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D2299" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E2299" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2299" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2299" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2299" t="n">
+        <v>72000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2299"/>
+  <dimension ref="A1:I2300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81179,6 +81179,43 @@
         <v>72000</v>
       </c>
     </row>
+    <row r="2300">
+      <c r="A2300" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D2300" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E2300" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2300" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2300" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2300"/>
+  <dimension ref="A1:I2301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81216,6 +81216,41 @@
         </is>
       </c>
     </row>
+    <row r="2301">
+      <c r="A2301" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E2301" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2301" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2301" t="n">
+        <v>55000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2301"/>
+  <dimension ref="A1:I2302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81251,6 +81251,41 @@
         <v>55000</v>
       </c>
     </row>
+    <row r="2302">
+      <c r="A2302" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D2302" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E2302" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2302" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2302" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2302" t="n">
+        <v>105100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2302"/>
+  <dimension ref="A1:I2303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81286,6 +81286,41 @@
         <v>105100</v>
       </c>
     </row>
+    <row r="2303">
+      <c r="A2303" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D2303" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E2303" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2303" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2303" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2303" t="n">
+        <v>70000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6173.xlsx
+++ b/data/6173.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2303"/>
+  <dimension ref="A1:I2304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81321,6 +81321,41 @@
         <v>70000</v>
       </c>
     </row>
+    <row r="2304">
+      <c r="A2304" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="D2304" t="inlineStr">
+        <is>
+          <t>BDB</t>
+        </is>
+      </c>
+      <c r="E2304" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2304" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2304" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2304" t="n">
+        <v>72200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
